--- a/data/inputs/Matriz_riesgos_FOMUR.xlsx
+++ b/data/inputs/Matriz_riesgos_FOMUR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit.sharepoint.com/sites/territorios/Projects/2025_Intervencion_Cuidado_IDB/cuidado-rural/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{EEA2F039-4044-4B83-8DF1-0C7D01D423A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0893F49E-A09A-4601-8492-C93DC475370A}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{EEA2F039-4044-4B83-8DF1-0C7D01D423A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A121C333-3F26-3040-A654-F37D6EE68081}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45D9C940-301C-4FE6-931E-7D98113D6509}"/>
+    <workbookView xWindow="-100" yWindow="500" windowWidth="30580" windowHeight="18260" xr2:uid="{45D9C940-301C-4FE6-931E-7D98113D6509}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -877,10 +877,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,28 +1196,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A815C5-6EED-48BC-B01B-F4A03EB754D0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="203" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="65.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="65.5" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" style="9" customWidth="1"/>
     <col min="10" max="10" width="42.6640625" customWidth="1"/>
     <col min="11" max="11" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1305,7 +1300,7 @@
       </c>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
@@ -1335,7 +1330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1360,7 @@
       </c>
       <c r="J5" s="51"/>
     </row>
-    <row r="6" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -1395,7 +1390,7 @@
       </c>
       <c r="J6" s="51"/>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
         <v>119</v>
       </c>
@@ -1421,7 +1416,7 @@
       <c r="I7" s="50"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
         <v>119</v>
       </c>
@@ -1447,7 +1442,7 @@
       <c r="I8" s="52"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>122</v>
       </c>
@@ -1477,7 +1472,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>122</v>
       </c>
@@ -1505,7 +1500,7 @@
       <c r="I10" s="51"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>122</v>
       </c>
@@ -1537,7 +1532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>118</v>
       </c>
@@ -1563,7 +1558,7 @@
       <c r="I12" s="48"/>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>118</v>
       </c>
@@ -1589,7 +1584,7 @@
       <c r="I13" s="53"/>
       <c r="J13" s="52"/>
     </row>
-    <row r="14" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
@@ -1619,7 +1614,7 @@
       </c>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
         <v>47</v>
       </c>
@@ -1647,7 +1642,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="43" t="s">
         <v>47</v>
       </c>
@@ -1675,7 +1670,7 @@
       </c>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
         <v>47</v>
       </c>
@@ -1703,7 +1698,7 @@
       </c>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>59</v>
       </c>
@@ -1731,7 +1726,7 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>59</v>
       </c>
@@ -1757,7 +1752,7 @@
       <c r="I19" s="49"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
         <v>59</v>
       </c>
@@ -1785,7 +1780,7 @@
       <c r="I20" s="49"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
         <v>65</v>
       </c>
@@ -1813,7 +1808,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
         <v>65</v>
       </c>
@@ -1839,7 +1834,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
         <v>65</v>
       </c>
@@ -1865,7 +1860,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
         <v>65</v>
       </c>
@@ -1893,7 +1888,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="43" t="s">
         <v>65</v>
       </c>
@@ -1921,7 +1916,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>75</v>
       </c>
@@ -1949,7 +1944,7 @@
       </c>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
         <v>75</v>
       </c>
@@ -1979,7 +1974,7 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>81</v>
       </c>
@@ -2009,7 +2004,7 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
         <v>81</v>
       </c>
@@ -2037,7 +2032,7 @@
       <c r="I29" s="28"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
         <v>81</v>
       </c>
@@ -2067,7 +2062,7 @@
       </c>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
         <v>91</v>
       </c>
@@ -2095,7 +2090,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
         <v>91</v>
       </c>
@@ -2123,7 +2118,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
         <v>98</v>
       </c>
@@ -2151,7 +2146,7 @@
       <c r="I33" s="28"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
         <v>98</v>
       </c>
@@ -2180,13 +2175,6 @@
       <c r="J34" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H34" xr:uid="{69A815C5-6EED-48BC-B01B-F4A03EB754D0}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="_x0009__x000a_La Jagua de Ibirico"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A2"/>
     <mergeCell ref="I18:I20"/>
@@ -2224,87 +2212,87 @@
   <dimension ref="B2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>117</v>
       </c>
@@ -2315,6 +2303,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EAB170F55A8EC74185BD611F05A04793" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d5a17d1a554d55876e000539a76a2c5d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="53729c01-e331-46af-8f84-09bea977ed00" xmlns:ns3="0b6a0b30-4523-4899-95a0-946babcdb6cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae57f88b4a3fd45965a526b4b96cee99" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2538,29 +2548,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1529DAAE-23BE-4D59-B4F8-BB4B4504BADD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
+    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C38CC6-7C27-49A2-9E83-9D24E84687D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B5CC39-4489-4801-9264-728CFCE044B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2578,24 +2592,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C38CC6-7C27-49A2-9E83-9D24E84687D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1529DAAE-23BE-4D59-B4F8-BB4B4504BADD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>